--- a/INFORMACION TECNICA/INGENIERIA/HUEVO/ingenieria.huevo.xlsx
+++ b/INFORMACION TECNICA/INGENIERIA/HUEVO/ingenieria.huevo.xlsx
@@ -781,14 +781,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1426,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,7 +2645,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3468,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
